--- a/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
+++ b/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
@@ -3134,10 +3134,10 @@
         <v>3.813863928308223</v>
       </c>
       <c r="G84">
-        <v>13.5431724569603</v>
+        <v>2.31906979058428</v>
       </c>
       <c r="H84">
-        <v>-13.42972625192188</v>
+        <v>-2.205623585545855</v>
       </c>
       <c r="I84">
         <v>14.17603240506267</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.491112304931545</v>
+        <v>3.686931383727245</v>
       </c>
       <c r="F85">
-        <v>4.586596033306066</v>
+        <v>4.635550803004993</v>
       </c>
       <c r="G85">
-        <v>-13.94575265128306</v>
+        <v>-0.4916588542049684</v>
       </c>
       <c r="H85">
-        <v>12.7044637226051</v>
+        <v>-0.7496300744729976</v>
       </c>
       <c r="I85">
-        <v>4.732401233609511</v>
+        <v>4.928220312405212</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-0.8949744362011745</v>
+        <v>-1.234470279880219</v>
       </c>
       <c r="F86">
-        <v>4.242684861674919</v>
+        <v>4.206765670454083</v>
       </c>
       <c r="G86">
-        <v>-0.2556644809853845</v>
+        <v>-1.108795353661529</v>
       </c>
       <c r="H86">
-        <v>0.08883251305593645</v>
+        <v>0.9419633857320807</v>
       </c>
       <c r="I86">
-        <v>-0.7281424682717264</v>
+        <v>-1.06763831195077</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-0.5270943922185047</v>
+        <v>-0.8359665126516609</v>
       </c>
       <c r="F87">
-        <v>4.089630521653238</v>
+        <v>3.976493300324113</v>
       </c>
       <c r="G87">
         <v>-0.4126286033386162</v>
@@ -3233,7 +3233,7 @@
         <v>0.1441810391789869</v>
       </c>
       <c r="I87">
-        <v>-0.2586468280588755</v>
+        <v>-0.5675189484920315</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.338810541820667</v>
+        <v>-2.107156849629133</v>
       </c>
       <c r="F88">
-        <v>-0.3174417663272013</v>
+        <v>-0.1226655646084427</v>
       </c>
       <c r="G88">
         <v>-0.4414236022509018</v>
@@ -3263,7 +3263,7 @@
         <v>0.02454030594595624</v>
       </c>
       <c r="I88">
-        <v>-2.921927245515721</v>
+        <v>-1.690273553324188</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.57946808860577</v>
+        <v>-2.067809260152096</v>
       </c>
       <c r="F89">
-        <v>-2.08508686471153</v>
+        <v>-1.561350725578278</v>
       </c>
       <c r="G89">
         <v>-0.3882665210287286</v>
@@ -3293,7 +3293,7 @@
         <v>0.1126503839659053</v>
       </c>
       <c r="I89">
-        <v>-3.303851951542947</v>
+        <v>-1.792193123089273</v>
       </c>
     </row>
     <row r="90">
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-4.467450275404602</v>
+        <v>-2.460082939934443</v>
       </c>
       <c r="F90">
-        <v>-2.978205824512387</v>
+        <v>-1.867753890591834</v>
       </c>
       <c r="G90">
         <v>0.1339900701217499</v>
@@ -3323,7 +3323,7 @@
         <v>-0.2554514037024582</v>
       </c>
       <c r="I90">
-        <v>-4.345988941823894</v>
+        <v>-2.338621606353734</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-4.329488952986162</v>
+        <v>-0.7811241074894042</v>
       </c>
       <c r="F91">
-        <v>-3.928804464704301</v>
+        <v>-1.85404328930127</v>
       </c>
       <c r="G91">
         <v>0.148519412053598</v>
@@ -3353,7 +3353,7 @@
         <v>-0.2053494160520199</v>
       </c>
       <c r="I91">
-        <v>-4.27265894898774</v>
+        <v>-0.7242941034909823</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-5.709161441287033</v>
+        <v>-1.084921473608043</v>
       </c>
       <c r="F92">
-        <v>-4.521392189570893</v>
+        <v>-1.598484445295997</v>
       </c>
       <c r="G92">
         <v>0.1434298172750638</v>
@@ -3383,7 +3383,7 @@
         <v>-0.2007720367727466</v>
       </c>
       <c r="I92">
-        <v>-5.65181922178935</v>
+        <v>-1.02757925411036</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-4.511742801627857</v>
+        <v>0.4178203246921824</v>
       </c>
       <c r="F93">
-        <v>-4.754460867826415</v>
+        <v>-0.9770770490849278</v>
       </c>
       <c r="G93">
         <v>0.1721671008686201</v>
@@ -3413,7 +3413,7 @@
         <v>-0.2674561945528453</v>
       </c>
       <c r="I93">
-        <v>-4.416453707943632</v>
+        <v>0.5131094183764077</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
+++ b/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04932278832823928</v>
+        <v>-0.04061832242004215</v>
       </c>
       <c r="F2">
-        <v>-0.4469858474916468</v>
+        <v>-0.4432720742383244</v>
       </c>
       <c r="G2">
         <v>0.2318136940835876</v>
@@ -434,7 +434,7 @@
         <v>0.1384476835461522</v>
       </c>
       <c r="I2">
-        <v>-0.419584165957979</v>
+        <v>-0.4108797000497819</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.889666396925633</v>
+        <v>-1.894094314700828</v>
       </c>
       <c r="F3">
-        <v>-0.7463849117283146</v>
+        <v>-0.744708349425337</v>
       </c>
       <c r="G3">
         <v>-1.31159166141865</v>
@@ -467,7 +467,7 @@
         <v>0.03883989562439163</v>
       </c>
       <c r="I3">
-        <v>-0.6169146311313748</v>
+        <v>-0.6213425489065694</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3089450243958607</v>
+        <v>-0.3158551670988031</v>
       </c>
       <c r="F4">
-        <v>-0.6109690798429839</v>
+        <v>-0.6107542832874939</v>
       </c>
       <c r="G4">
         <v>0.4707108944060808</v>
@@ -500,7 +500,7 @@
         <v>-0.5107329829851925</v>
       </c>
       <c r="I4">
-        <v>-0.268922935816749</v>
+        <v>-0.2758330785196914</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.107596038569778</v>
+        <v>-1.106417451332466</v>
       </c>
       <c r="F5">
-        <v>-0.8388825620548781</v>
+        <v>-0.8392463138880354</v>
       </c>
       <c r="G5">
         <v>-0.7542304097927617</v>
@@ -533,7 +533,7 @@
         <v>-0.2606953291135496</v>
       </c>
       <c r="I5">
-        <v>-0.09267029966346674</v>
+        <v>-0.09149171242615425</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2174362895015348</v>
+        <v>-0.2227089703389372</v>
       </c>
       <c r="F6">
-        <v>-0.880910937348202</v>
+        <v>-0.8847689758677592</v>
       </c>
       <c r="G6">
         <v>0.03794677656077419</v>
@@ -566,7 +566,7 @@
         <v>-0.2790588276696364</v>
       </c>
       <c r="I6">
-        <v>0.02367576160732738</v>
+        <v>0.01840308076992495</v>
       </c>
     </row>
     <row r="7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6916906192687385</v>
+        <v>0.6752153682283115</v>
       </c>
       <c r="F7">
-        <v>-0.2355716832996092</v>
+        <v>-0.2424415551354744</v>
       </c>
       <c r="G7">
         <v>0.4176699769362638</v>
@@ -599,7 +599,7 @@
         <v>0.03463379122030326</v>
       </c>
       <c r="I7">
-        <v>0.2393868511121715</v>
+        <v>0.2229116000717445</v>
       </c>
     </row>
     <row r="8">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.028743299593723</v>
+        <v>1.016467988634533</v>
       </c>
       <c r="F8">
-        <v>0.09885039769778682</v>
+        <v>0.09063923379785963</v>
       </c>
       <c r="G8">
         <v>0.3854233068740954</v>
@@ -632,7 +632,7 @@
         <v>0.2634165840868962</v>
       </c>
       <c r="I8">
-        <v>0.3799034086327318</v>
+        <v>0.3676280976735413</v>
       </c>
     </row>
     <row r="9">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8009557549500425</v>
+        <v>0.7996462120335254</v>
       </c>
       <c r="F9">
-        <v>0.575988346077742</v>
+        <v>0.5671551496393574</v>
       </c>
       <c r="G9">
         <v>-0.3246051547334287</v>
@@ -665,7 +665,7 @@
         <v>-0.3447600652268802</v>
       </c>
       <c r="I9">
-        <v>1.470320974910351</v>
+        <v>1.469011431993834</v>
       </c>
     </row>
     <row r="10">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.919839734374504</v>
+        <v>1.907642441980008</v>
       </c>
       <c r="F10">
-        <v>1.110307352046752</v>
+        <v>1.099743002719094</v>
       </c>
       <c r="G10">
         <v>0.1230989010896827</v>
@@ -698,7 +698,7 @@
         <v>0.5335658662608733</v>
       </c>
       <c r="I10">
-        <v>1.263174967023948</v>
+        <v>1.250977674629452</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.285342222525221</v>
+        <v>2.283132706000392</v>
       </c>
       <c r="F11">
-        <v>1.508720252860872</v>
+        <v>1.501722337162114</v>
       </c>
       <c r="G11">
         <v>1.052245127335171</v>
@@ -731,7 +731,7 @@
         <v>-0.2965791441100969</v>
       </c>
       <c r="I11">
-        <v>1.529676239300148</v>
+        <v>1.527466722775318</v>
       </c>
     </row>
     <row r="12">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.931965411866221</v>
+        <v>1.917641537417383</v>
       </c>
       <c r="F12">
-        <v>1.734525780928997</v>
+        <v>1.727015724357826</v>
       </c>
       <c r="G12">
         <v>0.3185676646894323</v>
@@ -764,7 +764,7 @@
         <v>-0.2595992058963156</v>
       </c>
       <c r="I12">
-        <v>1.872996953073104</v>
+        <v>1.858673078624266</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.443771624297853</v>
+        <v>1.434873579931709</v>
       </c>
       <c r="F13">
-        <v>1.895229748265949</v>
+        <v>1.885822566332372</v>
       </c>
       <c r="G13">
         <v>-0.08532620047935681</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552962673344586</v>
+        <v>1.544064628978442</v>
       </c>
     </row>
     <row r="14">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.188166172820331</v>
+        <v>1.288602764010593</v>
       </c>
       <c r="F14">
-        <v>1.712311357877406</v>
+        <v>1.731062646840019</v>
       </c>
       <c r="G14">
         <v>0.3456853209154376</v>
@@ -830,7 +830,7 @@
         <v>-0.2574736546801012</v>
       </c>
       <c r="I14">
-        <v>1.099954506584995</v>
+        <v>1.200391097775257</v>
       </c>
     </row>
     <row r="15">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7128131158019653</v>
+        <v>0.7814236475098792</v>
       </c>
       <c r="F15">
-        <v>1.319179081196592</v>
+        <v>1.355635382217391</v>
       </c>
       <c r="G15">
         <v>0.0406776650144408</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.134083793151229</v>
+        <v>1.202694324859143</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.38384912093355</v>
+        <v>1.312747270119298</v>
       </c>
       <c r="F16">
-        <v>1.182150008463424</v>
+        <v>1.204411815392869</v>
       </c>
       <c r="G16">
         <v>1.665594538201976</v>
@@ -896,7 +896,7 @@
         <v>-1.43490081457891</v>
       </c>
       <c r="I16">
-        <v>1.153155397310484</v>
+        <v>1.082053546496232</v>
       </c>
     </row>
     <row r="17">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5882778225287952</v>
+        <v>0.53279364638306</v>
       </c>
       <c r="F17">
-        <v>0.9682765580211596</v>
+        <v>0.978891832005707</v>
       </c>
       <c r="G17">
         <v>-0.7323423591140148</v>
@@ -929,7 +929,7 @@
         <v>0.3998565275949437</v>
       </c>
       <c r="I17">
-        <v>0.9207636540478663</v>
+        <v>0.8652794779021311</v>
       </c>
     </row>
     <row r="18">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6484157767578571</v>
+        <v>0.678628351403525</v>
       </c>
       <c r="F18">
-        <v>0.8333389590055411</v>
+        <v>0.8263982288539398</v>
       </c>
       <c r="G18">
         <v>0.5092651698143085</v>
@@ -962,7 +962,7 @@
         <v>-0.546989131172936</v>
       </c>
       <c r="I18">
-        <v>0.6861397381164847</v>
+        <v>0.7163523127621525</v>
       </c>
     </row>
     <row r="19">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07736815158605984</v>
+        <v>0.1340499054686814</v>
       </c>
       <c r="F19">
-        <v>0.6744777179515649</v>
+        <v>0.6645547933436403</v>
       </c>
       <c r="G19">
         <v>-0.4041200882597878</v>
@@ -995,7 +995,7 @@
         <v>0.2335694975294421</v>
       </c>
       <c r="I19">
-        <v>0.2479187423164056</v>
+        <v>0.3046004961990272</v>
       </c>
     </row>
     <row r="20">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1204265298871156</v>
+        <v>-0.09256424087157539</v>
       </c>
       <c r="F20">
-        <v>0.2984088052463984</v>
+        <v>0.3132269155959219</v>
       </c>
       <c r="G20">
         <v>-0.2813714609987538</v>
@@ -1028,7 +1028,7 @@
         <v>-0.03567393639946731</v>
       </c>
       <c r="I20">
-        <v>0.1966188675111055</v>
+        <v>0.2244811565266457</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.4655468536569111</v>
+        <v>-0.5011849112700564</v>
       </c>
       <c r="F21">
-        <v>0.03495263619997183</v>
+        <v>0.05473227618264281</v>
       </c>
       <c r="G21">
         <v>0.3398770253391276</v>
@@ -1061,7 +1061,7 @@
         <v>-0.7314416061911453</v>
       </c>
       <c r="I21">
-        <v>-0.07398227280489336</v>
+        <v>-0.1096203304180387</v>
       </c>
     </row>
     <row r="22">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.66597156096414</v>
+        <v>-0.7214320558235141</v>
       </c>
       <c r="F22">
-        <v>-0.2936441982305275</v>
+        <v>-0.295282825624117</v>
       </c>
       <c r="G22">
         <v>-0.3550314415416719</v>
@@ -1094,7 +1094,7 @@
         <v>-0.2307444377000993</v>
       </c>
       <c r="I22">
-        <v>-0.08019568172236891</v>
+        <v>-0.135656176581743</v>
       </c>
     </row>
     <row r="23">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6363277001230021</v>
+        <v>-0.6441483053156745</v>
       </c>
       <c r="F23">
-        <v>-0.4720681611577929</v>
+        <v>-0.4898323783202059</v>
       </c>
       <c r="G23">
         <v>0.02168388493087975</v>
@@ -1127,7 +1127,7 @@
         <v>-0.1581741428903265</v>
       </c>
       <c r="I23">
-        <v>-0.4998374421635554</v>
+        <v>-0.5076580473562277</v>
       </c>
     </row>
     <row r="24">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.059191424855756</v>
+        <v>-1.044134541328612</v>
       </c>
       <c r="F24">
-        <v>-0.7067593848999529</v>
+        <v>-0.727724953434465</v>
       </c>
       <c r="G24">
         <v>-0.2701579859382386</v>
@@ -1160,7 +1160,7 @@
         <v>-0.2764818884085525</v>
       </c>
       <c r="I24">
-        <v>-0.5125515505089645</v>
+        <v>-0.4974946669818205</v>
       </c>
     </row>
     <row r="25">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7625094549814095</v>
+        <v>-0.761372411775055</v>
       </c>
       <c r="F25">
-        <v>-0.7810000352310775</v>
+        <v>-0.7927718285607146</v>
       </c>
       <c r="G25">
         <v>-0.1071728628412014</v>
@@ -1193,7 +1193,7 @@
         <v>-0.1249180002665537</v>
       </c>
       <c r="I25">
-        <v>-0.5304185918736545</v>
+        <v>-0.5292815486672999</v>
       </c>
     </row>
     <row r="26">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8686373311051071</v>
+        <v>-0.8764984983108808</v>
       </c>
       <c r="F26">
-        <v>-0.8316664777663193</v>
+        <v>-0.8315384391825564</v>
       </c>
       <c r="G26">
         <v>-0.2767950136222138</v>
@@ -1226,7 +1226,7 @@
         <v>-0.1302645945694583</v>
       </c>
       <c r="I26">
-        <v>-0.461577722913435</v>
+        <v>-0.4694388901192086</v>
       </c>
     </row>
     <row r="27">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08933197463653653</v>
+        <v>-0.08466524858053848</v>
       </c>
       <c r="F27">
-        <v>-0.6949175463947028</v>
+        <v>-0.6916676749987725</v>
       </c>
       <c r="G27">
         <v>0.6877869103813896</v>
@@ -1259,7 +1259,7 @@
         <v>-0.1683661652429188</v>
       </c>
       <c r="I27">
-        <v>-0.6087527197750074</v>
+        <v>-0.6040859937190094</v>
       </c>
     </row>
     <row r="28">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.121362038847531</v>
+        <v>-1.105142402377536</v>
       </c>
       <c r="F28">
-        <v>-0.7104601998926466</v>
+        <v>-0.7069196402610034</v>
       </c>
       <c r="G28">
         <v>-0.4905032062218124</v>
@@ -1292,7 +1292,7 @@
         <v>0.03320395040116637</v>
       </c>
       <c r="I28">
-        <v>-0.664062783026885</v>
+        <v>-0.6478431465568898</v>
       </c>
     </row>
     <row r="29">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8025841134312768</v>
+        <v>-0.8076753935605143</v>
       </c>
       <c r="F29">
-        <v>-0.7204788645051134</v>
+        <v>-0.7184953857073683</v>
       </c>
       <c r="G29">
         <v>-0.6627889888787315</v>
@@ -1325,7 +1325,7 @@
         <v>0.1395514339167008</v>
       </c>
       <c r="I29">
-        <v>-0.2793465584692461</v>
+        <v>-0.2844378385984835</v>
       </c>
     </row>
     <row r="30">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04497306661156075</v>
+        <v>-0.06341312248297293</v>
       </c>
       <c r="F30">
-        <v>-0.5145627983817269</v>
+        <v>-0.5152240417503913</v>
       </c>
       <c r="G30">
         <v>0.0405326156052338</v>
@@ -1358,7 +1358,7 @@
         <v>0.202729765204821</v>
       </c>
       <c r="I30">
-        <v>-0.2882354474216156</v>
+        <v>-0.3066755032930277</v>
       </c>
     </row>
     <row r="31">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.5945145374658474</v>
+        <v>-0.596660181480251</v>
       </c>
       <c r="F31">
-        <v>-0.6408584390890546</v>
+        <v>-0.6432227749753194</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1391,7 +1391,7 @@
         <v>0.1914173671366676</v>
       </c>
       <c r="I31">
-        <v>-0.3377180667490006</v>
+        <v>-0.3398637107634042</v>
       </c>
     </row>
     <row r="32">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04949840875269429</v>
+        <v>0.05896939663880491</v>
       </c>
       <c r="F32">
-        <v>-0.3481433271889983</v>
+        <v>-0.3521948252212343</v>
       </c>
       <c r="G32">
         <v>0.6845768143843559</v>
@@ -1424,7 +1424,7 @@
         <v>-0.3565550164851028</v>
       </c>
       <c r="I32">
-        <v>-0.2785233891465588</v>
+        <v>-0.2690524012604482</v>
       </c>
     </row>
     <row r="33">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06747215153773298</v>
+        <v>-0.06190473315231905</v>
       </c>
       <c r="F33">
-        <v>-0.1643653367156124</v>
+        <v>-0.1657521601191855</v>
       </c>
       <c r="G33">
         <v>-0.08640542978502515</v>
@@ -1457,7 +1457,7 @@
         <v>0.06632580721215653</v>
       </c>
       <c r="I33">
-        <v>-0.04739252896486435</v>
+        <v>-0.04182511057945043</v>
       </c>
     </row>
     <row r="34">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2925968720771208</v>
+        <v>0.2871560397948862</v>
       </c>
       <c r="F34">
-        <v>-0.07997285204344198</v>
+        <v>-0.07810986954972068</v>
       </c>
       <c r="G34">
         <v>0.134181683212793</v>
@@ -1490,7 +1490,7 @@
         <v>0.1080155521227334</v>
       </c>
       <c r="I34">
-        <v>0.05039963674159439</v>
+        <v>0.04495880445935981</v>
       </c>
     </row>
     <row r="35">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.05470159743612268</v>
+        <v>-0.06336378222741071</v>
       </c>
       <c r="F35">
-        <v>0.05498038296398919</v>
+        <v>0.0552142302634894</v>
       </c>
       <c r="G35">
         <v>0.3175547462742406</v>
@@ -1523,7 +1523,7 @@
         <v>-0.5011733566315455</v>
       </c>
       <c r="I35">
-        <v>0.1289170129211822</v>
+        <v>0.1202548281298942</v>
       </c>
     </row>
     <row r="36">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2.604105573262943</v>
+        <v>2.601506853841752</v>
       </c>
       <c r="F36">
-        <v>0.6936321740915514</v>
+        <v>0.6908485945642262</v>
       </c>
       <c r="G36">
         <v>0.5310600703908137</v>
@@ -1556,7 +1556,7 @@
         <v>-0.1974623965262828</v>
       </c>
       <c r="I36">
-        <v>2.270507899398412</v>
+        <v>2.267909179977221</v>
       </c>
     </row>
     <row r="37">
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.412453084073397</v>
+        <v>1.371561587634117</v>
       </c>
       <c r="F37">
-        <v>1.063613482994334</v>
+        <v>1.049215174760835</v>
       </c>
       <c r="G37">
         <v>-0.002758138597635018</v>
@@ -1589,7 +1589,7 @@
         <v>0.3093434144177715</v>
       </c>
       <c r="I37">
-        <v>1.105867808253261</v>
+        <v>1.064976311813981</v>
       </c>
     </row>
     <row r="38">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.633001091925851</v>
+        <v>1.561033530038143</v>
       </c>
       <c r="F38">
-        <v>1.398714537956517</v>
+        <v>1.36768454732165</v>
       </c>
       <c r="G38">
         <v>0.5136971469729917</v>
@@ -1622,7 +1622,7 @@
         <v>-0.2960053567725832</v>
       </c>
       <c r="I38">
-        <v>1.415309301725443</v>
+        <v>1.343341739837735</v>
       </c>
     </row>
     <row r="39">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.532122308897292</v>
+        <v>3.49675130241488</v>
       </c>
       <c r="F39">
-        <v>2.295420514539871</v>
+        <v>2.257713318482222</v>
       </c>
       <c r="G39">
         <v>0.1830775014705948</v>
@@ -1655,7 +1655,7 @@
         <v>0.4338389778553179</v>
       </c>
       <c r="I39">
-        <v>2.915205829571379</v>
+        <v>2.879834823088967</v>
       </c>
     </row>
     <row r="40">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.864287839047667</v>
+        <v>2.842481342190744</v>
       </c>
       <c r="F40">
-        <v>2.360466080986052</v>
+        <v>2.31795694056947</v>
       </c>
       <c r="G40">
         <v>1.644181498240886</v>
@@ -1688,7 +1688,7 @@
         <v>-0.7074856204578588</v>
       </c>
       <c r="I40">
-        <v>1.92759196126464</v>
+        <v>1.905785464407717</v>
       </c>
     </row>
     <row r="41">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.739702111884473</v>
+        <v>2.777848979393873</v>
       </c>
       <c r="F41">
-        <v>2.692278337938821</v>
+        <v>2.669528788509409</v>
       </c>
       <c r="G41">
         <v>0.4214418425158024</v>
@@ -1721,7 +1721,7 @@
         <v>-0.44606518048123</v>
       </c>
       <c r="I41">
-        <v>2.764325449849901</v>
+        <v>2.8024723173593</v>
       </c>
     </row>
     <row r="42">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.255849807384959</v>
+        <v>2.391465995322001</v>
       </c>
       <c r="F42">
-        <v>2.847990516803597</v>
+        <v>2.877136904830374</v>
       </c>
       <c r="G42">
         <v>0.6290059163210516</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.341248135717945</v>
+        <v>2.476864323654986</v>
       </c>
     </row>
     <row r="43">
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.495647569594783</v>
+        <v>1.560989632717467</v>
       </c>
       <c r="F43">
-        <v>2.33887183197797</v>
+        <v>2.393196487406021</v>
       </c>
       <c r="G43">
         <v>0.4901069572014474</v>
@@ -1787,7 +1787,7 @@
         <v>-1.063597864520708</v>
       </c>
       <c r="I43">
-        <v>2.069138476914044</v>
+        <v>2.134480540036728</v>
       </c>
     </row>
     <row r="44">
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.196798063428107</v>
+        <v>1.20488657859464</v>
       </c>
       <c r="F44">
-        <v>1.92199938807308</v>
+        <v>1.983797796506995</v>
       </c>
       <c r="G44">
         <v>0.4203095613777605</v>
@@ -1820,7 +1820,7 @@
         <v>-0.37639879104271</v>
       </c>
       <c r="I44">
-        <v>1.152887293093057</v>
+        <v>1.160975808259589</v>
       </c>
     </row>
     <row r="45">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1911591396440102</v>
+        <v>0.2585023141428142</v>
       </c>
       <c r="F45">
-        <v>1.284863645012964</v>
+        <v>1.35396113019423</v>
       </c>
       <c r="G45">
         <v>0.08455124436341505</v>
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.033300273677422</v>
+        <v>1.100643448176226</v>
       </c>
     </row>
     <row r="46">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2279892483689395</v>
+        <v>0.2231663822182423</v>
       </c>
       <c r="F46">
-        <v>0.7778985052589592</v>
+        <v>0.8118862269182904</v>
       </c>
       <c r="G46">
         <v>-0.7063634794243945</v>
@@ -1886,7 +1886,7 @@
         <v>-0.08829624979960171</v>
       </c>
       <c r="I46">
-        <v>1.022648977592936</v>
+        <v>1.017826111442238</v>
       </c>
     </row>
     <row r="47">
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.43528819058441</v>
+        <v>-1.514800611400724</v>
       </c>
       <c r="F47">
-        <v>0.04516456521416112</v>
+        <v>0.04293866588874273</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -1919,7 +1919,7 @@
         <v>-0.5207276274948131</v>
       </c>
       <c r="I47">
-        <v>-0.1353763310587236</v>
+        <v>-0.2148887518750374</v>
       </c>
     </row>
     <row r="48">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.317189124701745</v>
+        <v>-1.332859930929122</v>
       </c>
       <c r="F48">
-        <v>-0.5833322318183018</v>
+        <v>-0.5914979614921977</v>
       </c>
       <c r="G48">
         <v>-0.1791826590862452</v>
@@ -1952,7 +1952,7 @@
         <v>-0.6686679888322142</v>
       </c>
       <c r="I48">
-        <v>-0.4693384767832854</v>
+        <v>-0.4850092830106624</v>
       </c>
     </row>
     <row r="49">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.162992892311451</v>
+        <v>-2.150031416769592</v>
       </c>
       <c r="F49">
-        <v>-1.171870239807167</v>
+        <v>-1.193631394220299</v>
       </c>
       <c r="G49">
         <v>-1.410076980392139</v>
@@ -1985,7 +1985,7 @@
         <v>-0.05152418484441068</v>
       </c>
       <c r="I49">
-        <v>-0.7013917270749013</v>
+        <v>-0.6884302515330424</v>
       </c>
     </row>
     <row r="50">
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.084930329632481</v>
+        <v>-1.098150531347586</v>
       </c>
       <c r="F50">
-        <v>-1.500100134307522</v>
+        <v>-1.523960622611756</v>
       </c>
       <c r="G50">
         <v>-0.2105533183890024</v>
@@ -2018,7 +2018,7 @@
         <v>-0.1404336047976929</v>
       </c>
       <c r="I50">
-        <v>-0.7339434064457862</v>
+        <v>-0.7471636081608909</v>
       </c>
     </row>
     <row r="51">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.457288912263728</v>
+        <v>-1.470551944456238</v>
       </c>
       <c r="F51">
-        <v>-1.505600314727352</v>
+        <v>-1.512898455875635</v>
       </c>
       <c r="G51">
         <v>-0.3909270564522251</v>
@@ -2051,7 +2051,7 @@
         <v>-0.2560200781047454</v>
       </c>
       <c r="I51">
-        <v>-0.8103417777067574</v>
+        <v>-0.8236048098992675</v>
       </c>
     </row>
     <row r="52">
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.284356325970676</v>
+        <v>-1.268066489931598</v>
       </c>
       <c r="F52">
-        <v>-1.497392115044585</v>
+        <v>-1.496700095626254</v>
       </c>
       <c r="G52">
         <v>-0.6442132037942118</v>
@@ -2084,7 +2084,7 @@
         <v>-0.06640099407624728</v>
       </c>
       <c r="I52">
-        <v>-0.5737421281002171</v>
+        <v>-0.5574522920611386</v>
       </c>
     </row>
     <row r="53">
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.8583302477527929</v>
+        <v>-0.8351889667099406</v>
       </c>
       <c r="F53">
-        <v>-1.17122645390492</v>
+        <v>-1.167989483111341</v>
       </c>
       <c r="G53">
         <v>-0.07052941796100387</v>
@@ -2117,7 +2117,7 @@
         <v>-0.3554763575157842</v>
       </c>
       <c r="I53">
-        <v>-0.4323244722760048</v>
+        <v>-0.4091831912331524</v>
       </c>
     </row>
     <row r="54">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.565634900165805</v>
+        <v>-1.575841646730348</v>
       </c>
       <c r="F54">
-        <v>-1.291402596538251</v>
+        <v>-1.287412261957032</v>
       </c>
       <c r="G54">
         <v>-0.8865916234440627</v>
@@ -2150,7 +2150,7 @@
         <v>-0.1832364051070537</v>
       </c>
       <c r="I54">
-        <v>-0.4958068716146886</v>
+        <v>-0.5060136181792314</v>
       </c>
     </row>
     <row r="55">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.783417127555434</v>
+        <v>-1.806078709001486</v>
       </c>
       <c r="F55">
-        <v>-1.372934650361178</v>
+        <v>-1.371293953093344</v>
       </c>
       <c r="G55">
         <v>-1.047790882965999</v>
@@ -2183,7 +2183,7 @@
         <v>0.04953696020514492</v>
       </c>
       <c r="I55">
-        <v>-0.78516320479458</v>
+        <v>-0.8078247862406325</v>
       </c>
     </row>
     <row r="56">
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.295427428140189</v>
+        <v>-1.295489046976919</v>
       </c>
       <c r="F56">
-        <v>-1.375702425903556</v>
+        <v>-1.378149592354674</v>
       </c>
       <c r="G56">
         <v>-0.3471829962638515</v>
@@ -2216,7 +2216,7 @@
         <v>-0.0966042891959619</v>
       </c>
       <c r="I56">
-        <v>-0.8516401426803758</v>
+        <v>-0.8517017615171055</v>
       </c>
     </row>
     <row r="57">
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.152610993212792</v>
+        <v>-1.145322845879059</v>
       </c>
       <c r="F57">
-        <v>-1.449272612268556</v>
+        <v>-1.455683062146953</v>
       </c>
       <c r="G57">
         <v>-0.6132388212289077</v>
@@ -2249,7 +2249,7 @@
         <v>-0.1028635192602457</v>
       </c>
       <c r="I57">
-        <v>-0.4365086527236389</v>
+        <v>-0.4292205053899051</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.384226526985612</v>
+        <v>-1.388116116757953</v>
       </c>
       <c r="F58">
-        <v>-1.403920518973508</v>
+        <v>-1.408751679653855</v>
       </c>
       <c r="G58">
         <v>-0.9172888700772799</v>
@@ -2282,7 +2282,7 @@
         <v>0.01540737794330799</v>
       </c>
       <c r="I58">
-        <v>-0.4823450348516403</v>
+        <v>-0.4862346246239813</v>
       </c>
     </row>
     <row r="59">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.297272162778938</v>
+        <v>-1.275543358424267</v>
       </c>
       <c r="F59">
-        <v>-1.282384277779384</v>
+        <v>-1.27611784200955</v>
       </c>
       <c r="G59">
         <v>-0.2587432465973415</v>
@@ -2315,7 +2315,7 @@
         <v>-0.3629080917018036</v>
       </c>
       <c r="I59">
-        <v>-0.6756208244797927</v>
+        <v>-0.6538920201251217</v>
       </c>
     </row>
     <row r="60">
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7507150353225633</v>
+        <v>-0.7198050697958774</v>
       </c>
       <c r="F60">
-        <v>-1.146206179574977</v>
+        <v>-1.132196847714289</v>
       </c>
       <c r="G60">
         <v>-0.09302646274323331</v>
@@ -2348,7 +2348,7 @@
         <v>-0.1298910337959616</v>
       </c>
       <c r="I60">
-        <v>-0.5277975387833684</v>
+        <v>-0.4968875732566825</v>
       </c>
     </row>
     <row r="61">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.1726286086756727</v>
+        <v>-0.2152921241916431</v>
       </c>
       <c r="F61">
-        <v>-0.9012105834406974</v>
+        <v>-0.8996891672924356</v>
       </c>
       <c r="G61">
         <v>0.03469619020211948</v>
@@ -2381,7 +2381,7 @@
         <v>0.1381184495505191</v>
       </c>
       <c r="I61">
-        <v>-0.3454432484283113</v>
+        <v>-0.3881067639442817</v>
       </c>
     </row>
     <row r="62">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.5422171705718358</v>
+        <v>-0.5944800197732689</v>
       </c>
       <c r="F62">
-        <v>-0.6907082443372532</v>
+        <v>-0.7012801430462646</v>
       </c>
       <c r="G62">
         <v>-0.8456653475137066</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1943078627576371</v>
+        <v>-0.2465707119590702</v>
       </c>
     </row>
     <row r="63">
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07508084834374588</v>
+        <v>0.08183568108811624</v>
       </c>
       <c r="F63">
-        <v>-0.3476199915565823</v>
+        <v>-0.3619353831681688</v>
       </c>
       <c r="G63">
         <v>0.0488266565076218</v>
@@ -2447,7 +2447,7 @@
         <v>0.00794499122983091</v>
       </c>
       <c r="I63">
-        <v>0.01830920060629317</v>
+        <v>0.02506403335066354</v>
       </c>
     </row>
     <row r="64">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.2871956342159526</v>
+        <v>0.3016995959892881</v>
       </c>
       <c r="F64">
-        <v>-0.08814232417195333</v>
+        <v>-0.1065592167218774</v>
       </c>
       <c r="G64">
         <v>-0.07135988355089964</v>
@@ -2480,7 +2480,7 @@
         <v>0.3696321006761685</v>
       </c>
       <c r="I64">
-        <v>-0.01107658290931631</v>
+        <v>0.0034273788640193</v>
       </c>
     </row>
     <row r="65">
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.0348932722193499</v>
+        <v>0.03868318049999063</v>
       </c>
       <c r="F65">
-        <v>-0.03626185394819768</v>
+        <v>-0.04306539054896899</v>
       </c>
       <c r="G65">
         <v>-0.04123200610439566</v>
@@ -2513,7 +2513,7 @@
         <v>0.05673608506707493</v>
       </c>
       <c r="I65">
-        <v>0.01938919325667063</v>
+        <v>0.02317910153731135</v>
       </c>
     </row>
     <row r="66">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1005819750487675</v>
+        <v>-0.09949807052568636</v>
       </c>
       <c r="F66">
-        <v>0.0741469449325694</v>
+        <v>0.08068009676292665</v>
       </c>
       <c r="G66">
         <v>0.1305714754136182</v>
@@ -2546,7 +2546,7 @@
         <v>-0.1739916507745391</v>
       </c>
       <c r="I66">
-        <v>-0.05716179968784655</v>
+        <v>-0.0560778951647654</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.317607350645855</v>
+        <v>0.3164077622749688</v>
       </c>
       <c r="F67">
-        <v>0.1347785705080967</v>
+        <v>0.1393231170596398</v>
       </c>
       <c r="G67">
         <v>-0.0095204543947928</v>
@@ -2579,7 +2579,7 @@
         <v>0.3618699123118419</v>
       </c>
       <c r="I67">
-        <v>-0.03474210727119406</v>
+        <v>-0.03594169564208029</v>
       </c>
     </row>
     <row r="68">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4746798065130151</v>
+        <v>-0.4742082101059184</v>
       </c>
       <c r="F68">
-        <v>-0.05569028967414523</v>
+        <v>-0.05465383446416185</v>
       </c>
       <c r="G68">
         <v>-0.2028730263807215</v>
@@ -2612,7 +2612,7 @@
         <v>-0.1980140598340873</v>
       </c>
       <c r="I68">
-        <v>-0.07379272029820626</v>
+        <v>-0.07332112389110956</v>
       </c>
     </row>
     <row r="69">
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09238412162976098</v>
+        <v>-0.0904656536528928</v>
       </c>
       <c r="F69">
-        <v>-0.08750963813642296</v>
+        <v>-0.0869410430023827</v>
       </c>
       <c r="G69">
         <v>-0.0594327661714883</v>
@@ -2645,7 +2645,7 @@
         <v>0.1054090751596382</v>
       </c>
       <c r="I69">
-        <v>-0.1383604306179109</v>
+        <v>-0.1364419626410427</v>
       </c>
     </row>
     <row r="70">
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1990579218844226</v>
+        <v>-0.1964286624705839</v>
       </c>
       <c r="F70">
-        <v>-0.1121286248453367</v>
+        <v>-0.1111736909886071</v>
       </c>
       <c r="G70">
         <v>-0.1469082386613492</v>
@@ -2678,7 +2678,7 @@
         <v>0.05240041216595906</v>
       </c>
       <c r="I70">
-        <v>-0.1045500953890324</v>
+        <v>-0.1019208359751937</v>
       </c>
     </row>
     <row r="71">
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2103550967322966</v>
+        <v>-0.2085105477476595</v>
       </c>
       <c r="F71">
-        <v>-0.2441192366898746</v>
+        <v>-0.2424032684942642</v>
       </c>
       <c r="G71">
         <v>-0.2842812308453224</v>
@@ -2711,7 +2711,7 @@
         <v>0.01102558298453079</v>
       </c>
       <c r="I71">
-        <v>0.06290055112849507</v>
+        <v>0.06474510011313214</v>
       </c>
     </row>
     <row r="72">
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07533844586083796</v>
+        <v>0.074349619986932</v>
       </c>
       <c r="F72">
-        <v>-0.1066146735964113</v>
+        <v>-0.1052638109710516</v>
       </c>
       <c r="G72">
         <v>0.1101517719974749</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08810048780433589</v>
+        <v>0.08711166193042993</v>
       </c>
     </row>
     <row r="73">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2287256002259627</v>
+        <v>-0.2318399843438248</v>
       </c>
       <c r="F73">
-        <v>-0.1407000432454618</v>
+        <v>-0.1406073936437846</v>
       </c>
       <c r="G73">
         <v>-0.3642509696606954</v>
@@ -2777,7 +2777,7 @@
         <v>0.1086193414943325</v>
       </c>
       <c r="I73">
-        <v>0.02690602794040024</v>
+        <v>0.02379164382253814</v>
       </c>
     </row>
     <row r="74">
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03959594375674771</v>
+        <v>0.03796488333588671</v>
       </c>
       <c r="F74">
-        <v>-0.0810365768351692</v>
+        <v>-0.08200900719216693</v>
       </c>
       <c r="G74">
         <v>0.2237569875946429</v>
@@ -2810,7 +2810,7 @@
         <v>-0.02712450934502616</v>
       </c>
       <c r="I74">
-        <v>-0.157036534492869</v>
+        <v>-0.15866759491373</v>
       </c>
     </row>
     <row r="75">
@@ -2831,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.0181712003829638</v>
+        <v>0.02039362888863046</v>
       </c>
       <c r="F75">
-        <v>-0.02390500255635411</v>
+        <v>-0.02478296303309444</v>
       </c>
       <c r="G75">
         <v>-0.01311419685234618</v>
@@ -2843,7 +2843,7 @@
         <v>-0.03836760891619392</v>
       </c>
       <c r="I75">
-        <v>0.0696530061515039</v>
+        <v>0.07187543465717056</v>
       </c>
     </row>
     <row r="76">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273310033908086</v>
+        <v>0.4308055625995785</v>
       </c>
       <c r="F76">
-        <v>0.06409313682613854</v>
+        <v>0.06433102262006718</v>
       </c>
       <c r="G76">
         <v>0.007741184328022455</v>
@@ -2876,7 +2876,7 @@
         <v>0.1820306418640798</v>
       </c>
       <c r="I76">
-        <v>0.2375591771987063</v>
+        <v>0.2410337364074762</v>
       </c>
     </row>
     <row r="77">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1656468001724334</v>
+        <v>0.1660278535762643</v>
       </c>
       <c r="F77">
-        <v>0.1626862369257376</v>
+        <v>0.1637979821000894</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -2909,7 +2909,7 @@
         <v>-0.0655278868595966</v>
       </c>
       <c r="I77">
-        <v>0.04795821525344868</v>
+        <v>0.04833926865727958</v>
       </c>
     </row>
     <row r="78">
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4280410883731992</v>
+        <v>-0.4313973788615904</v>
       </c>
       <c r="F78">
-        <v>0.04577697889325084</v>
+        <v>0.04645741655072017</v>
       </c>
       <c r="G78">
         <v>-0.0319629231639949</v>
@@ -2942,7 +2942,7 @@
         <v>-0.4472970132207758</v>
       </c>
       <c r="I78">
-        <v>0.05121884801157155</v>
+        <v>0.0478625575231803</v>
       </c>
     </row>
     <row r="79">
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.2109907177307189</v>
+        <v>0.2061188359426356</v>
       </c>
       <c r="F79">
-        <v>0.09398185823018962</v>
+        <v>0.09288871831422146</v>
       </c>
       <c r="G79">
         <v>-0.1261415442716636</v>
@@ -2975,7 +2975,7 @@
         <v>0.234931818107759</v>
       </c>
       <c r="I79">
-        <v>0.1022004438946236</v>
+        <v>0.09732856210654027</v>
       </c>
     </row>
     <row r="80">
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6139051435579954</v>
+        <v>0.6125189292601034</v>
       </c>
       <c r="F80">
-        <v>0.1406253932719863</v>
+        <v>0.1383170599793527</v>
       </c>
       <c r="G80">
         <v>0.43627845986265</v>
@@ -3008,7 +3008,7 @@
         <v>0.1023935315640581</v>
       </c>
       <c r="I80">
-        <v>0.07523315213128735</v>
+        <v>0.0738469378333953</v>
       </c>
     </row>
     <row r="81">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4001838849401698</v>
+        <v>0.4042530141354013</v>
       </c>
       <c r="F81">
-        <v>0.1992596644639204</v>
+        <v>0.197873350119137</v>
       </c>
       <c r="G81">
         <v>0.1698509031992773</v>
@@ -3041,7 +3041,7 @@
         <v>-0.117298132789972</v>
       </c>
       <c r="I81">
-        <v>0.3476311145308645</v>
+        <v>0.3517002437260961</v>
       </c>
     </row>
     <row r="82">
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.4806702503234167</v>
+        <v>0.4819785948822296</v>
       </c>
       <c r="F82">
-        <v>0.4264374991380743</v>
+        <v>0.4262173435550919</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3074,7 +3074,7 @@
         <v>-0.2466962259924505</v>
       </c>
       <c r="I82">
-        <v>0.3836555843042889</v>
+        <v>0.3849639288631017</v>
       </c>
     </row>
     <row r="83">
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.08512296786821864</v>
+        <v>0.05723153838888968</v>
       </c>
       <c r="F83">
-        <v>0.3949705616724493</v>
+        <v>0.3889955191666555</v>
       </c>
       <c r="G83">
         <v>-0.02351814460598127</v>
@@ -3107,7 +3107,7 @@
         <v>-0.07249663819006502</v>
       </c>
       <c r="I83">
-        <v>0.1811377506642649</v>
+        <v>0.153246321184936</v>
       </c>
     </row>
     <row r="84">
@@ -3128,19 +3128,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.28947861010109</v>
+        <v>12.12535802000887</v>
       </c>
       <c r="F84">
-        <v>3.813863928308223</v>
+        <v>3.267205291853848</v>
       </c>
       <c r="G84">
-        <v>2.31906979058428</v>
+        <v>13.5431724569603</v>
       </c>
       <c r="H84">
-        <v>-2.205623585545855</v>
+        <v>-13.42972625192188</v>
       </c>
       <c r="I84">
-        <v>14.17603240506267</v>
+        <v>12.01191181497045</v>
       </c>
     </row>
     <row r="85">
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.686931383727245</v>
+        <v>5.221999066669508</v>
       </c>
       <c r="F85">
-        <v>4.635550803004993</v>
+        <v>4.471641804987375</v>
       </c>
       <c r="G85">
-        <v>-0.4916588542049684</v>
+        <v>-13.94617787904197</v>
       </c>
       <c r="H85">
-        <v>-0.7496300744729976</v>
+        <v>12.70848765188585</v>
       </c>
       <c r="I85">
-        <v>4.928220312405212</v>
+        <v>6.459689293825623</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-1.234470279880219</v>
+        <v>5.043766401677331</v>
       </c>
       <c r="F86">
-        <v>4.206765670454083</v>
+        <v>5.61208875668615</v>
       </c>
       <c r="G86">
-        <v>-1.108795353661529</v>
+        <v>-0.2555024292683293</v>
       </c>
       <c r="H86">
-        <v>0.9419633857320807</v>
+        <v>0.994923096262912</v>
       </c>
       <c r="I86">
-        <v>-1.06763831195077</v>
+        <v>4.304345734682749</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-0.8359665126516609</v>
+        <v>3.719591208077784</v>
       </c>
       <c r="F87">
-        <v>3.976493300324113</v>
+        <v>6.527678674108373</v>
       </c>
       <c r="G87">
-        <v>-0.4126286033386162</v>
+        <v>-0.412383690555891</v>
       </c>
       <c r="H87">
-        <v>0.1441810391789869</v>
+        <v>0.7295149363834014</v>
       </c>
       <c r="I87">
-        <v>-0.5675189484920315</v>
+        <v>3.402459962250274</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.107156849629133</v>
+        <v>-7.290228013671845</v>
       </c>
       <c r="F88">
-        <v>-0.1226655646084427</v>
+        <v>1.673782165688193</v>
       </c>
       <c r="G88">
-        <v>-0.4414236022509018</v>
+        <v>-0.4411647229762398</v>
       </c>
       <c r="H88">
-        <v>0.02454030594595624</v>
+        <v>0.6443569486380742</v>
       </c>
       <c r="I88">
-        <v>-1.690273553324188</v>
+        <v>-7.49342023933368</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.067809260152096</v>
+        <v>-2.397601169835892</v>
       </c>
       <c r="F89">
-        <v>-1.561350725578278</v>
+        <v>-0.2311178934381568</v>
       </c>
       <c r="G89">
-        <v>-0.3882665210287286</v>
+        <v>-0.3880361512990903</v>
       </c>
       <c r="H89">
-        <v>0.1126503839659053</v>
+        <v>0.4457314728486525</v>
       </c>
       <c r="I89">
-        <v>-1.792193123089273</v>
+        <v>-2.455296491385455</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.460082939934443</v>
+        <v>-1.216208207223485</v>
       </c>
       <c r="F90">
-        <v>-1.867753890591834</v>
+        <v>-1.796111545663361</v>
       </c>
       <c r="G90">
-        <v>0.1339900701217499</v>
+        <v>0.1339023301591873</v>
       </c>
       <c r="H90">
-        <v>-0.2554514037024582</v>
+        <v>-0.131837248348437</v>
       </c>
       <c r="I90">
-        <v>-2.338621606353734</v>
+        <v>-1.218273289034235</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-0.7811241074894042</v>
+        <v>-0.2523076386576123</v>
       </c>
       <c r="F91">
-        <v>-1.85404328930127</v>
+        <v>-2.789086257347209</v>
       </c>
       <c r="G91">
-        <v>0.148519412053598</v>
+        <v>0.1484237608649566</v>
       </c>
       <c r="H91">
-        <v>-0.2053494160520199</v>
+        <v>-0.1470880820957318</v>
       </c>
       <c r="I91">
-        <v>-0.7242941034909823</v>
+        <v>-0.253643317426837</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.084921473608043</v>
+        <v>-0.06953452836362482</v>
       </c>
       <c r="F92">
-        <v>-1.598484445295997</v>
+        <v>-0.9839128860201543</v>
       </c>
       <c r="G92">
-        <v>0.1434298172750638</v>
+        <v>0.1433373557277565</v>
       </c>
       <c r="H92">
-        <v>-0.2007720367727466</v>
+        <v>-0.2027821377446551</v>
       </c>
       <c r="I92">
-        <v>-1.02757925411036</v>
+        <v>-0.0100897463467262</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,1000 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.4178203246921824</v>
+        <v>0.4989955097734404</v>
       </c>
       <c r="F93">
-        <v>-0.9770770490849278</v>
+        <v>-0.2597637161178211</v>
       </c>
       <c r="G93">
-        <v>0.1721671008686201</v>
+        <v>0.1720594666519386</v>
       </c>
       <c r="H93">
-        <v>-0.2674561945528453</v>
+        <v>-0.2730065554015365</v>
       </c>
       <c r="I93">
-        <v>0.5131094183764077</v>
+        <v>0.5999425985230383</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0.1706000086205728</v>
+      </c>
+      <c r="F94">
+        <v>0.08693833784319327</v>
+      </c>
+      <c r="G94">
+        <v>0.127103719689951</v>
+      </c>
+      <c r="H94">
+        <v>-0.3169672729970025</v>
+      </c>
+      <c r="I94">
+        <v>0.3604635619276244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>-0.02103222690165307</v>
+      </c>
+      <c r="F95">
+        <v>0.1447571907821831</v>
+      </c>
+      <c r="G95">
+        <v>0.1635914796725278</v>
+      </c>
+      <c r="H95">
+        <v>-0.3453755133412828</v>
+      </c>
+      <c r="I95">
+        <v>0.160751806767102</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>-0.6699315964226906</v>
+      </c>
+      <c r="F96">
+        <v>-0.005342076232583374</v>
+      </c>
+      <c r="G96">
+        <v>0.1250816828138544</v>
+      </c>
+      <c r="H96">
+        <v>-0.2959729067653404</v>
+      </c>
+      <c r="I96">
+        <v>-0.4990403724712047</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>-0.6946100846092922</v>
+      </c>
+      <c r="F97">
+        <v>-0.3037434748282665</v>
+      </c>
+      <c r="G97">
+        <v>0.1531278647018691</v>
+      </c>
+      <c r="H97">
+        <v>-0.3175894827247411</v>
+      </c>
+      <c r="I97">
+        <v>-0.5301484665864201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>-0.6307238547188382</v>
+      </c>
+      <c r="F98">
+        <v>-0.5040744406631193</v>
+      </c>
+      <c r="G98">
+        <v>-0.03548859017299725</v>
+      </c>
+      <c r="H98">
+        <v>-0.1336332606608549</v>
+      </c>
+      <c r="I98">
+        <v>-0.461602003884986</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>-0.559632771654773</v>
+      </c>
+      <c r="F99">
+        <v>-0.6387245768513994</v>
+      </c>
+      <c r="G99">
+        <v>-0.03649719067007046</v>
+      </c>
+      <c r="H99">
+        <v>-0.1218624688940768</v>
+      </c>
+      <c r="I99">
+        <v>-0.4012731120906257</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>-0.5032894509187553</v>
+      </c>
+      <c r="F100">
+        <v>-0.5970640404754155</v>
+      </c>
+      <c r="G100">
+        <v>-0.03158514326777189</v>
+      </c>
+      <c r="H100">
+        <v>-0.106528663935718</v>
+      </c>
+      <c r="I100">
+        <v>-0.3651756437152655</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>-0.4570071188233448</v>
+      </c>
+      <c r="F101">
+        <v>-0.5376632990289287</v>
+      </c>
+      <c r="G101">
+        <v>-0.03435177827984635</v>
+      </c>
+      <c r="H101">
+        <v>-0.08730695388637587</v>
+      </c>
+      <c r="I101">
+        <v>-0.3353483866571225</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>-0.292433513634578</v>
+      </c>
+      <c r="F102">
+        <v>-0.4530907137578637</v>
+      </c>
+      <c r="G102">
+        <v>-0.05728657136565139</v>
+      </c>
+      <c r="H102">
+        <v>-0.06391949707274136</v>
+      </c>
+      <c r="I102">
+        <v>-0.1712274451961853</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>-0.1382623367201508</v>
+      </c>
+      <c r="F103">
+        <v>-0.3477481050242082</v>
+      </c>
+      <c r="G103">
+        <v>-0.02504924123758059</v>
+      </c>
+      <c r="H103">
+        <v>-0.08290330628274006</v>
+      </c>
+      <c r="I103">
+        <v>-0.03030978919983014</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>-0.01935582558395366</v>
+      </c>
+      <c r="F104">
+        <v>-0.2267646986905077</v>
+      </c>
+      <c r="G104">
+        <v>-0.05924776168754323</v>
+      </c>
+      <c r="H104">
+        <v>-0.06128750192252752</v>
+      </c>
+      <c r="I104">
+        <v>0.1011794380261171</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0.1059261642749525</v>
+      </c>
+      <c r="F105">
+        <v>-0.08603137791593343</v>
+      </c>
+      <c r="G105">
+        <v>-0.05983643993807933</v>
+      </c>
+      <c r="H105">
+        <v>-0.05102975644904416</v>
+      </c>
+      <c r="I105">
+        <v>0.216792360662076</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0.005791569593566331</v>
+      </c>
+      <c r="F106">
+        <v>-0.01147510710889735</v>
+      </c>
+      <c r="G106">
+        <v>-0.06326971190488327</v>
+      </c>
+      <c r="H106">
+        <v>-0.04010674867713598</v>
+      </c>
+      <c r="I106">
+        <v>0.1091680301755856</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>-0.1284959425851541</v>
+      </c>
+      <c r="F107">
+        <v>-0.009033508575148182</v>
+      </c>
+      <c r="G107">
+        <v>-0.03200315398837832</v>
+      </c>
+      <c r="H107">
+        <v>-0.06022281990089603</v>
+      </c>
+      <c r="I107">
+        <v>-0.03626996869587978</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>-0.2376689823309311</v>
+      </c>
+      <c r="F108">
+        <v>-0.06361179776189255</v>
+      </c>
+      <c r="G108">
+        <v>-0.06287395058809496</v>
+      </c>
+      <c r="H108">
+        <v>-0.02709303322955661</v>
+      </c>
+      <c r="I108">
+        <v>-0.1477019985132796</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>-0.2731305832364627</v>
+      </c>
+      <c r="F109">
+        <v>-0.1583759846397463</v>
+      </c>
+      <c r="G109">
+        <v>-0.03099713767666431</v>
+      </c>
+      <c r="H109">
+        <v>-0.03764439442394402</v>
+      </c>
+      <c r="I109">
+        <v>-0.2044890511358544</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>-0.2977930665223728</v>
+      </c>
+      <c r="F110">
+        <v>-0.2342721436687311</v>
+      </c>
+      <c r="G110">
+        <v>-0.06756282699193752</v>
+      </c>
+      <c r="H110">
+        <v>-0.02116852663151274</v>
+      </c>
+      <c r="I110">
+        <v>-0.2090617128989225</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>-0.3084546483936688</v>
+      </c>
+      <c r="F111">
+        <v>-0.2792618201208598</v>
+      </c>
+      <c r="G111">
+        <v>-0.06703380787014257</v>
+      </c>
+      <c r="H111">
+        <v>-0.0297942227795559</v>
+      </c>
+      <c r="I111">
+        <v>-0.2116266177439703</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>-0.305297076700643</v>
+      </c>
+      <c r="F112">
+        <v>-0.2961688437132878</v>
+      </c>
+      <c r="G112">
+        <v>-0.03510453741890401</v>
+      </c>
+      <c r="H112">
+        <v>-0.03978203338445945</v>
+      </c>
+      <c r="I112">
+        <v>-0.2304105058972796</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>-0.3615177312697249</v>
+      </c>
+      <c r="F113">
+        <v>-0.3182656307216033</v>
+      </c>
+      <c r="G113">
+        <v>-0.06517035716161615</v>
+      </c>
+      <c r="H113">
+        <v>-0.03696141646842451</v>
+      </c>
+      <c r="I113">
+        <v>-0.2593859576396843</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>-0.2568863517967196</v>
+      </c>
+      <c r="F114">
+        <v>-0.3080389520401901</v>
+      </c>
+      <c r="G114">
+        <v>-0.03678656061534539</v>
+      </c>
+      <c r="H114">
+        <v>-0.0464812073525463</v>
+      </c>
+      <c r="I114">
+        <v>-0.1736185838288279</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>-0.1203884231573988</v>
+      </c>
+      <c r="F115">
+        <v>-0.2610223957311226</v>
+      </c>
+      <c r="G115">
+        <v>-0.06928816760723247</v>
+      </c>
+      <c r="H115">
+        <v>-0.03144703622482894</v>
+      </c>
+      <c r="I115">
+        <v>-0.01965321932533736</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0.03286321976841669</v>
+      </c>
+      <c r="F116">
+        <v>-0.1764823216138576</v>
+      </c>
+      <c r="G116">
+        <v>-0.03664398307869654</v>
+      </c>
+      <c r="H116">
+        <v>-0.0532676713238492</v>
+      </c>
+      <c r="I116">
+        <v>0.1227748741709624</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0.1313922460552249</v>
+      </c>
+      <c r="F117">
+        <v>-0.05325482728262017</v>
+      </c>
+      <c r="G117">
+        <v>-0.03680004494472287</v>
+      </c>
+      <c r="H117">
+        <v>-0.057867515176295</v>
+      </c>
+      <c r="I117">
+        <v>0.2260598061762428</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>-0.1441835445564921</v>
+      </c>
+      <c r="F118">
+        <v>-0.02507912547256329</v>
+      </c>
+      <c r="G118">
+        <v>-0.07054615887856519</v>
+      </c>
+      <c r="H118">
+        <v>-0.04681508292724771</v>
+      </c>
+      <c r="I118">
+        <v>-0.02682230275067924</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>-0.3438606991240897</v>
+      </c>
+      <c r="F119">
+        <v>-0.08094719446423602</v>
+      </c>
+      <c r="G119">
+        <v>-0.04167245117708458</v>
+      </c>
+      <c r="H119">
+        <v>-0.06175784310373033</v>
+      </c>
+      <c r="I119">
+        <v>-0.2404304048432748</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>-0.5316430215917912</v>
+      </c>
+      <c r="F120">
+        <v>-0.222073754804288</v>
+      </c>
+      <c r="G120">
+        <v>-0.07104319511060919</v>
+      </c>
+      <c r="H120">
+        <v>-0.05454333477872533</v>
+      </c>
+      <c r="I120">
+        <v>-0.4060564917024567</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>-0.6418052696105959</v>
+      </c>
+      <c r="F121">
+        <v>-0.4153731337207432</v>
+      </c>
+      <c r="G121">
+        <v>-0.04102958002245679</v>
+      </c>
+      <c r="H121">
+        <v>-0.07302635876641086</v>
+      </c>
+      <c r="I121">
+        <v>-0.5277493308217283</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>-0.2924070746176592</v>
+      </c>
+      <c r="F122">
+        <v>-0.452429016236035</v>
+      </c>
+      <c r="G122">
+        <v>-0.05178643757428301</v>
+      </c>
+      <c r="H122">
+        <v>-0.06528006035488707</v>
+      </c>
+      <c r="I122">
+        <v>-0.1753405766884892</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>-0.03828364621533628</v>
+      </c>
+      <c r="F123">
+        <v>-0.3760347530088466</v>
+      </c>
+      <c r="G123">
+        <v>-0.07879815728178992</v>
+      </c>
+      <c r="H123">
+        <v>-0.05500918051784483</v>
+      </c>
+      <c r="I123">
+        <v>0.09552369158429846</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0.1671093885357721</v>
+      </c>
+      <c r="F124">
+        <v>-0.2013466504769558</v>
+      </c>
+      <c r="G124">
+        <v>-0.051054103550428</v>
+      </c>
+      <c r="H124">
+        <v>-0.07533146531740723</v>
+      </c>
+      <c r="I124">
+        <v>0.2934949574036074</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0.3077262168074616</v>
+      </c>
+      <c r="F125">
+        <v>0.0360362211275586</v>
+      </c>
+      <c r="G125">
+        <v>-0.0481629194879832</v>
+      </c>
+      <c r="H125">
+        <v>-0.07634206101479432</v>
+      </c>
+      <c r="I125">
+        <v>0.4322311973102392</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0.1860695439838388</v>
+      </c>
+      <c r="I126">
+        <v>0.3402208008883499</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
+++ b/results/12-2020/no-addons/fim_interactive_noaddons.xlsx
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>5.043766401677331</v>
+        <v>3.680259274294004</v>
       </c>
       <c r="F86">
-        <v>5.61208875668615</v>
+        <v>5.271211974840319</v>
       </c>
       <c r="G86">
         <v>-0.2555024292683293</v>
       </c>
       <c r="H86">
-        <v>0.994923096262912</v>
+        <v>0.08878512403546765</v>
       </c>
       <c r="I86">
-        <v>4.304345734682749</v>
+        <v>3.846976579526866</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>3.719591208077784</v>
+        <v>2.347689841918489</v>
       </c>
       <c r="F87">
-        <v>6.527678674108373</v>
+        <v>5.843826550722718</v>
       </c>
       <c r="G87">
         <v>-0.412383690555891</v>
       </c>
       <c r="H87">
-        <v>0.7295149363834014</v>
+        <v>0.1440987094069509</v>
       </c>
       <c r="I87">
-        <v>3.402459962250274</v>
+        <v>2.615974823067429</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-7.290228013671845</v>
+        <v>-8.976776321850711</v>
       </c>
       <c r="F88">
-        <v>1.673782165688193</v>
+        <v>0.5682929652578221</v>
       </c>
       <c r="G88">
         <v>-0.4411647229762398</v>
       </c>
       <c r="H88">
-        <v>0.6443569486380742</v>
+        <v>0.02453766901004156</v>
       </c>
       <c r="I88">
-        <v>-7.49342023933368</v>
+        <v>-8.560149267884512</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.397601169835892</v>
+        <v>-3.978309616519428</v>
       </c>
       <c r="F89">
-        <v>-0.2311178934381568</v>
+        <v>-1.731784205539412</v>
       </c>
       <c r="G89">
         <v>-0.3880361512990903</v>
       </c>
       <c r="H89">
-        <v>0.4457314728486525</v>
+        <v>0.1125882280211566</v>
       </c>
       <c r="I89">
-        <v>-2.455296491385455</v>
+        <v>-3.702861693241494</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-1.216208207223485</v>
+        <v>-2.102616373543336</v>
       </c>
       <c r="F90">
-        <v>-1.796111545663361</v>
+        <v>-3.177503117498747</v>
       </c>
       <c r="G90">
         <v>0.1339023301591873</v>
       </c>
       <c r="H90">
-        <v>-0.131837248348437</v>
+        <v>-0.2552882542189747</v>
       </c>
       <c r="I90">
-        <v>-1.218273289034235</v>
+        <v>-1.981230449483548</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-0.2523076386576123</v>
+        <v>-0.731437487636884</v>
       </c>
       <c r="F91">
-        <v>-2.789086257347209</v>
+        <v>-3.94728494988759</v>
       </c>
       <c r="G91">
         <v>0.1484237608649566</v>
       </c>
       <c r="H91">
-        <v>-0.1470880820957318</v>
+        <v>-0.2052199120795587</v>
       </c>
       <c r="I91">
-        <v>-0.253643317426837</v>
+        <v>-0.6746413364222819</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-0.06953452836362482</v>
+        <v>-0.1989929386189175</v>
       </c>
       <c r="F92">
-        <v>-0.9839128860201543</v>
+        <v>-1.752839104079642</v>
       </c>
       <c r="G92">
         <v>0.1433373557277565</v>
       </c>
       <c r="H92">
-        <v>-0.2027821377446551</v>
+        <v>-0.2006453597222053</v>
       </c>
       <c r="I92">
-        <v>-0.0100897463467262</v>
+        <v>-0.1416849346244687</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.4989955097734404</v>
+        <v>0.5533475792865887</v>
       </c>
       <c r="F93">
-        <v>-0.2597637161178211</v>
+        <v>-0.6199248051281374</v>
       </c>
       <c r="G93">
         <v>0.1720594666519386</v>
       </c>
       <c r="H93">
-        <v>-0.2730065554015365</v>
+        <v>-0.2672854350458368</v>
       </c>
       <c r="I93">
-        <v>0.5999425985230383</v>
+        <v>0.6485735476804869</v>
       </c>
     </row>
     <row r="94">
@@ -3431,19 +3431,19 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0.1706000086205728</v>
+        <v>0.1847359823484989</v>
       </c>
       <c r="F94">
-        <v>0.08693833784319327</v>
+        <v>-0.04808671615517868</v>
       </c>
       <c r="G94">
         <v>0.127103719689951</v>
       </c>
       <c r="H94">
-        <v>-0.3169672729970025</v>
+        <v>-0.3076969134591389</v>
       </c>
       <c r="I94">
-        <v>0.3604635619276244</v>
+        <v>0.3653291761176868</v>
       </c>
     </row>
     <row r="95">
@@ -3461,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>-0.02103222690165307</v>
+        <v>-0.02586288097359801</v>
       </c>
       <c r="F95">
-        <v>0.1447571907821831</v>
+        <v>0.1283069355106428</v>
       </c>
       <c r="G95">
         <v>0.1635914796725278</v>
       </c>
       <c r="H95">
-        <v>-0.3453755133412828</v>
+        <v>-0.3349863823792135</v>
       </c>
       <c r="I95">
-        <v>0.160751806767102</v>
+        <v>0.1455320217330877</v>
       </c>
     </row>
     <row r="96">
@@ -3491,19 +3491,19 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>-0.6699315964226906</v>
+        <v>-0.6911101911302666</v>
       </c>
       <c r="F96">
-        <v>-0.005342076232583374</v>
+        <v>0.00527762238280554</v>
       </c>
       <c r="G96">
         <v>0.1250816828138544</v>
       </c>
       <c r="H96">
-        <v>-0.2959729067653404</v>
+        <v>-0.2875140414930297</v>
       </c>
       <c r="I96">
-        <v>-0.4990403724712047</v>
+        <v>-0.5286778324510912</v>
       </c>
     </row>
     <row r="97">
@@ -3521,19 +3521,19 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>-0.6946100846092922</v>
+        <v>-0.7109463283291764</v>
       </c>
       <c r="F97">
-        <v>-0.3037434748282665</v>
+        <v>-0.3107958545211357</v>
       </c>
       <c r="G97">
         <v>0.1531278647018691</v>
       </c>
       <c r="H97">
-        <v>-0.3175894827247411</v>
+        <v>-0.308388168623663</v>
       </c>
       <c r="I97">
-        <v>-0.5301484665864201</v>
+        <v>-0.5556860244073824</v>
       </c>
     </row>
     <row r="98">
@@ -3551,19 +3551,19 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>-0.6307238547188382</v>
+        <v>-0.6385110679305853</v>
       </c>
       <c r="F98">
-        <v>-0.5040744406631193</v>
+        <v>-0.5166076170909067</v>
       </c>
       <c r="G98">
         <v>-0.03548859017299725</v>
       </c>
       <c r="H98">
-        <v>-0.1336332606608549</v>
+        <v>-0.1242078811297451</v>
       </c>
       <c r="I98">
-        <v>-0.461602003884986</v>
+        <v>-0.478814596627843</v>
       </c>
     </row>
     <row r="99">
@@ -3581,19 +3581,19 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>-0.559632771654773</v>
+        <v>-0.5636118526484968</v>
       </c>
       <c r="F99">
-        <v>-0.6387245768513994</v>
+        <v>-0.6510448600096315</v>
       </c>
       <c r="G99">
         <v>-0.03649719067007046</v>
       </c>
       <c r="H99">
-        <v>-0.1218624688940768</v>
+        <v>-0.1131410748646612</v>
       </c>
       <c r="I99">
-        <v>-0.4012731120906257</v>
+        <v>-0.4139735871137652</v>
       </c>
     </row>
     <row r="100">
@@ -3611,19 +3611,19 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>-0.5032894509187553</v>
+        <v>-0.5055187398544909</v>
       </c>
       <c r="F100">
-        <v>-0.5970640404754155</v>
+        <v>-0.6046469971906876</v>
       </c>
       <c r="G100">
         <v>-0.03158514326777189</v>
       </c>
       <c r="H100">
-        <v>-0.106528663935718</v>
+        <v>-0.0987316757413821</v>
       </c>
       <c r="I100">
-        <v>-0.3651756437152655</v>
+        <v>-0.3752019208453369</v>
       </c>
     </row>
     <row r="101">
@@ -3641,19 +3641,19 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>-0.4570071188233448</v>
+        <v>-0.4631739489024822</v>
       </c>
       <c r="F101">
-        <v>-0.5376632990289287</v>
+        <v>-0.5427039023340141</v>
       </c>
       <c r="G101">
         <v>-0.03435177827984635</v>
       </c>
       <c r="H101">
-        <v>-0.08730695388637587</v>
+        <v>-0.08063665727845436</v>
       </c>
       <c r="I101">
-        <v>-0.3353483866571225</v>
+        <v>-0.3481855133441815</v>
       </c>
     </row>
     <row r="102">
@@ -3671,19 +3671,19 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>-0.292433513634578</v>
+        <v>-0.2673038422047105</v>
       </c>
       <c r="F102">
-        <v>-0.4530907137578637</v>
+        <v>-0.4499020959025454</v>
       </c>
       <c r="G102">
         <v>-0.05728657136565139</v>
       </c>
       <c r="H102">
-        <v>-0.06391949707274136</v>
+        <v>-0.05723682191681605</v>
       </c>
       <c r="I102">
-        <v>-0.1712274451961853</v>
+        <v>-0.152780448922243</v>
       </c>
     </row>
     <row r="103">
@@ -3701,19 +3701,19 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>-0.1382623367201508</v>
+        <v>-0.08528450216597984</v>
       </c>
       <c r="F103">
-        <v>-0.3477481050242082</v>
+        <v>-0.3303202582819161</v>
       </c>
       <c r="G103">
         <v>-0.02504924123758059</v>
       </c>
       <c r="H103">
-        <v>-0.08290330628274006</v>
+        <v>-0.07587101817681705</v>
       </c>
       <c r="I103">
-        <v>-0.03030978919983014</v>
+        <v>0.0156357572484178</v>
       </c>
     </row>
     <row r="104">
@@ -3731,19 +3731,19 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>-0.01935582558395366</v>
+        <v>0.05812151651325217</v>
       </c>
       <c r="F104">
-        <v>-0.2267646986905077</v>
+        <v>-0.1894101941899803</v>
       </c>
       <c r="G104">
         <v>-0.05924776168754323</v>
       </c>
       <c r="H104">
-        <v>-0.06128750192252752</v>
+        <v>-0.05486731123815808</v>
       </c>
       <c r="I104">
-        <v>0.1011794380261171</v>
+        <v>0.1722365894389535</v>
       </c>
     </row>
     <row r="105">
@@ -3761,19 +3761,19 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0.1059261642749525</v>
+        <v>0.2047767174390268</v>
       </c>
       <c r="F105">
-        <v>-0.08603137791593343</v>
+        <v>-0.02242252760460312</v>
       </c>
       <c r="G105">
         <v>-0.05983643993807933</v>
       </c>
       <c r="H105">
-        <v>-0.05102975644904416</v>
+        <v>-0.04526669706578193</v>
       </c>
       <c r="I105">
-        <v>0.216792360662076</v>
+        <v>0.309879854442888</v>
       </c>
     </row>
     <row r="106">
@@ -3791,19 +3791,19 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0.005791569593566331</v>
+        <v>0.0722737176454564</v>
       </c>
       <c r="F106">
-        <v>-0.01147510710889735</v>
+        <v>0.06247186235793861</v>
       </c>
       <c r="G106">
         <v>-0.06326971190488327</v>
       </c>
       <c r="H106">
-        <v>-0.04010674867713598</v>
+        <v>-0.03475888848409577</v>
       </c>
       <c r="I106">
-        <v>0.1091680301755856</v>
+        <v>0.1703023180344354</v>
       </c>
     </row>
     <row r="107">
@@ -3821,19 +3821,19 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>-0.1284959425851541</v>
+        <v>-0.08670008486227136</v>
       </c>
       <c r="F107">
-        <v>-0.009033508575148182</v>
+        <v>0.06211796668386572</v>
       </c>
       <c r="G107">
         <v>-0.03200315398837832</v>
       </c>
       <c r="H107">
-        <v>-0.06022281990089603</v>
+        <v>-0.05443444842384374</v>
       </c>
       <c r="I107">
-        <v>-0.03626996869587978</v>
+        <v>-0.0002624824500492945</v>
       </c>
     </row>
     <row r="108">
@@ -3851,19 +3851,19 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>-0.2376689823309311</v>
+        <v>-0.2164226799810804</v>
       </c>
       <c r="F108">
-        <v>-0.06361179776189255</v>
+        <v>-0.006518082439717431</v>
       </c>
       <c r="G108">
         <v>-0.06287395058809496</v>
       </c>
       <c r="H108">
-        <v>-0.02709303322955661</v>
+        <v>-0.02262340175337374</v>
       </c>
       <c r="I108">
-        <v>-0.1477019985132796</v>
+        <v>-0.1309253276396118</v>
       </c>
     </row>
     <row r="109">
@@ -3881,19 +3881,19 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>-0.2731305832364627</v>
+        <v>-0.2642465696146233</v>
       </c>
       <c r="F109">
-        <v>-0.1583759846397463</v>
+        <v>-0.1237739042031299</v>
       </c>
       <c r="G109">
         <v>-0.03099713767666431</v>
       </c>
       <c r="H109">
-        <v>-0.03764439442394402</v>
+        <v>-0.03324402107510648</v>
       </c>
       <c r="I109">
-        <v>-0.2044890511358544</v>
+        <v>-0.2000054108628525</v>
       </c>
     </row>
     <row r="110">
@@ -3911,19 +3911,19 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>-0.2977930665223728</v>
+        <v>-0.2873397052640327</v>
       </c>
       <c r="F110">
-        <v>-0.2342721436687311</v>
+        <v>-0.2136772599305022</v>
       </c>
       <c r="G110">
         <v>-0.06756282699193752</v>
       </c>
       <c r="H110">
-        <v>-0.02116852663151274</v>
+        <v>-0.0168875205374413</v>
       </c>
       <c r="I110">
-        <v>-0.2090617128989225</v>
+        <v>-0.2028893577346539</v>
       </c>
     </row>
     <row r="111">
@@ -3941,19 +3941,19 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>-0.3084546483936688</v>
+        <v>-0.2968015602886593</v>
       </c>
       <c r="F111">
-        <v>-0.2792618201208598</v>
+        <v>-0.2662026287870992</v>
       </c>
       <c r="G111">
         <v>-0.06703380787014257</v>
       </c>
       <c r="H111">
-        <v>-0.0297942227795559</v>
+        <v>-0.02510931265696181</v>
       </c>
       <c r="I111">
-        <v>-0.2116266177439703</v>
+        <v>-0.2046584397615549</v>
       </c>
     </row>
     <row r="112">
@@ -3971,19 +3971,19 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>-0.305297076700643</v>
+        <v>-0.2949165131893148</v>
       </c>
       <c r="F112">
-        <v>-0.2961688437132878</v>
+        <v>-0.2858260870891578</v>
       </c>
       <c r="G112">
         <v>-0.03510453741890401</v>
       </c>
       <c r="H112">
-        <v>-0.03978203338445945</v>
+        <v>-0.03521861439247089</v>
       </c>
       <c r="I112">
-        <v>-0.2304105058972796</v>
+        <v>-0.2245933613779398</v>
       </c>
     </row>
     <row r="113">
@@ -4001,19 +4001,19 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>-0.3615177312697249</v>
+        <v>-0.3529101000271226</v>
       </c>
       <c r="F113">
-        <v>-0.3182656307216033</v>
+        <v>-0.3079919696922827</v>
       </c>
       <c r="G113">
         <v>-0.06517035716161615</v>
       </c>
       <c r="H113">
-        <v>-0.03696141646842451</v>
+        <v>-0.03198795660782582</v>
       </c>
       <c r="I113">
-        <v>-0.2593859576396843</v>
+        <v>-0.2557517862576807</v>
       </c>
     </row>
     <row r="114">
@@ -4031,19 +4031,19 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>-0.2568863517967196</v>
+        <v>-0.2214324879033238</v>
       </c>
       <c r="F114">
-        <v>-0.3080389520401901</v>
+        <v>-0.2915151653521054</v>
       </c>
       <c r="G114">
         <v>-0.03678656061534539</v>
       </c>
       <c r="H114">
-        <v>-0.0464812073525463</v>
+        <v>-0.04142977303710259</v>
       </c>
       <c r="I114">
-        <v>-0.1736185838288279</v>
+        <v>-0.1432161542508758</v>
       </c>
     </row>
     <row r="115">
@@ -4061,19 +4061,19 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>-0.1203884231573988</v>
+        <v>-0.0634273571989695</v>
       </c>
       <c r="F115">
-        <v>-0.2610223957311226</v>
+        <v>-0.2331716145796829</v>
       </c>
       <c r="G115">
         <v>-0.06928816760723247</v>
       </c>
       <c r="H115">
-        <v>-0.03144703622482894</v>
+        <v>-0.02673567703335961</v>
       </c>
       <c r="I115">
-        <v>-0.01965321932533736</v>
+        <v>0.03259648744162259</v>
       </c>
     </row>
     <row r="116">
@@ -4091,19 +4091,19 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0.03286321976841669</v>
+        <v>0.1107574097593994</v>
       </c>
       <c r="F116">
-        <v>-0.1764823216138576</v>
+        <v>-0.1317531338425044</v>
       </c>
       <c r="G116">
         <v>-0.03664398307869654</v>
       </c>
       <c r="H116">
-        <v>-0.0532676713238492</v>
+        <v>-0.04797402840468178</v>
       </c>
       <c r="I116">
-        <v>0.1227748741709624</v>
+        <v>0.1953754212427777</v>
       </c>
     </row>
     <row r="117">
@@ -4121,19 +4121,19 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0.1313922460552249</v>
+        <v>0.2265775790995693</v>
       </c>
       <c r="F117">
-        <v>-0.05325482728262017</v>
+        <v>0.01311878593916858</v>
       </c>
       <c r="G117">
         <v>-0.03680004494472287</v>
       </c>
       <c r="H117">
-        <v>-0.057867515176295</v>
+        <v>-0.05239837697603862</v>
       </c>
       <c r="I117">
-        <v>0.2260598061762428</v>
+        <v>0.3157760010203308</v>
       </c>
     </row>
     <row r="118">
@@ -4151,19 +4151,19 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>-0.1441835445564921</v>
+        <v>-0.1232732898647901</v>
       </c>
       <c r="F118">
-        <v>-0.02507912547256329</v>
+        <v>0.037658585448802</v>
       </c>
       <c r="G118">
         <v>-0.07054615887856519</v>
       </c>
       <c r="H118">
-        <v>-0.04681508292724771</v>
+        <v>-0.04105292735169145</v>
       </c>
       <c r="I118">
-        <v>-0.02682230275067924</v>
+        <v>-0.0116742036345335</v>
       </c>
     </row>
     <row r="119">
@@ -4181,19 +4181,19 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>-0.3438606991240897</v>
+        <v>-0.3846861531926303</v>
       </c>
       <c r="F119">
-        <v>-0.08094719446423602</v>
+        <v>-0.0426561135496132</v>
       </c>
       <c r="G119">
         <v>-0.04167245117708458</v>
       </c>
       <c r="H119">
-        <v>-0.06175784310373033</v>
+        <v>-0.05583481397406959</v>
       </c>
       <c r="I119">
-        <v>-0.2404304048432748</v>
+        <v>-0.2871788880414762</v>
       </c>
     </row>
     <row r="120">
@@ -4211,19 +4211,19 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>-0.5316430215917912</v>
+        <v>-0.6223825479344072</v>
       </c>
       <c r="F120">
-        <v>-0.222073754804288</v>
+        <v>-0.2259411029730649</v>
       </c>
       <c r="G120">
         <v>-0.07104319511060919</v>
       </c>
       <c r="H120">
-        <v>-0.05454333477872533</v>
+        <v>-0.04848284161678198</v>
       </c>
       <c r="I120">
-        <v>-0.4060564917024567</v>
+        <v>-0.502856511207016</v>
       </c>
     </row>
     <row r="121">
@@ -4241,19 +4241,19 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>-0.6418052696105959</v>
+        <v>-0.7702716412667178</v>
       </c>
       <c r="F121">
-        <v>-0.4153731337207432</v>
+        <v>-0.4751534080646366</v>
       </c>
       <c r="G121">
         <v>-0.04102958002245679</v>
       </c>
       <c r="H121">
-        <v>-0.07302635876641086</v>
+        <v>-0.06656174414540586</v>
       </c>
       <c r="I121">
-        <v>-0.5277493308217283</v>
+        <v>-0.6626803170988551</v>
       </c>
     </row>
     <row r="122">
@@ -4271,19 +4271,19 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>-0.2924070746176592</v>
+        <v>-0.3313267991198693</v>
       </c>
       <c r="F122">
-        <v>-0.452429016236035</v>
+        <v>-0.5271667853784064</v>
       </c>
       <c r="G122">
         <v>-0.05178643757428301</v>
       </c>
       <c r="H122">
-        <v>-0.06528006035488707</v>
+        <v>-0.05873691752142227</v>
       </c>
       <c r="I122">
-        <v>-0.1753405766884892</v>
+        <v>-0.220803444024164</v>
       </c>
     </row>
     <row r="123">
@@ -4301,19 +4301,19 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>-0.03828364621533628</v>
+        <v>-0.003709895504907329</v>
       </c>
       <c r="F123">
-        <v>-0.3760347530088466</v>
+        <v>-0.4319227209564757</v>
       </c>
       <c r="G123">
         <v>-0.07879815728178992</v>
       </c>
       <c r="H123">
-        <v>-0.05500918051784483</v>
+        <v>-0.04850694202569691</v>
       </c>
       <c r="I123">
-        <v>0.09552369158429846</v>
+        <v>0.1235952038025795</v>
       </c>
     </row>
     <row r="124">
@@ -4331,19 +4331,19 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0.1671093885357721</v>
+        <v>0.2574326603467768</v>
       </c>
       <c r="F124">
-        <v>-0.2013466504769558</v>
+        <v>-0.2119689188861796</v>
       </c>
       <c r="G124">
         <v>-0.051054103550428</v>
       </c>
       <c r="H124">
-        <v>-0.07533146531740723</v>
+        <v>-0.06831112276902784</v>
       </c>
       <c r="I124">
-        <v>0.2934949574036074</v>
+        <v>0.3767978866662327</v>
       </c>
     </row>
     <row r="125">
@@ -4361,19 +4361,19 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0.3077262168074616</v>
+        <v>0.4366669931689149</v>
       </c>
       <c r="F125">
-        <v>0.0360362211275586</v>
+        <v>0.08976573972272853</v>
       </c>
       <c r="G125">
         <v>-0.0481629194879832</v>
       </c>
       <c r="H125">
-        <v>-0.07634206101479432</v>
+        <v>-0.06930120098861753</v>
       </c>
       <c r="I125">
-        <v>0.4322311973102392</v>
+        <v>0.5541311136455156</v>
       </c>
     </row>
     <row r="126">
@@ -4391,10 +4391,10 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>0.1860695439838388</v>
+        <v>0.2817641877949246</v>
       </c>
       <c r="I126">
-        <v>0.3402208008883499</v>
+        <v>0.437669051895288</v>
       </c>
     </row>
   </sheetData>
